--- a/theo/outputs/OIH/correlations.xlsx
+++ b/theo/outputs/OIH/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.6222584592574797</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.1859669643981601</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1549285326854329</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.580149932261219</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.5271546336149578</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.06139218033648007</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.0610886248715551</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3517574604327126</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3472309649356621</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.06139218033648007</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.0610886248715551</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3517574604327126</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3472309649356621</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>0.09093033999392612</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>0.189562650995008</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>0.08588306548286857</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.6222584592574797</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>0.1753157131201505</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>0.09277066071782465</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>0.3586319205383414</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.7429517832236354</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.08575129996941086</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.08484002360295985</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.4687609939101777</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.460908247716188</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.03334514026495132</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.0342086613525402</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.4505167378140485</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.4426863788430191</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>0.09044003741764609</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>0.1804945712078475</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.03401374959638735</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.1859669643981601</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>0.1753157131201505</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.02411246729679141</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>0.1089439228561709</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>0.1761213383403213</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>-0.001213787602231251</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.0003840957141562031</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.03715985909466803</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.03405402072611151</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.043663737549396</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.04451166960164021</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.04345950571043247</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.04047230937628965</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.7820494117946882</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.814818823870716</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.8408876705545574</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1549285326854329</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>0.09277066071782465</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.02411246729679141</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2755251529285423</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>0.07887964142794889</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>-0.01976975914171655</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>-0.0184688027131617</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.03034911671538868</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.02889675561457603</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>-0.005462325582120539</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>-0.005629743371480221</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.008148025783910365</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.006314016016193654</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.6041780894329229</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.2091686539599204</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>-0.03985434147180268</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.580149932261219</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>0.3586319205383414</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>0.1089439228561709</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2755251529285423</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>0.2862883500455086</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.03448005507176908</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.03438287542493026</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.1419272837931273</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.1359266679761508</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.0364137502786218</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.03729287591780476</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.1426510343735403</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.1368203800761799</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.0849246029071524</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>0.06490928300761503</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.1527380869817311</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.5271546336149578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.7429517832236354</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>0.1761213383403213</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>0.07887964142794889</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>0.2862883500455086</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.03594150996978752</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.03770642471351555</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.2429823306031599</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.2514988519630926</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.07828562841559226</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.08015920276606789</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.2502310184835868</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.2587465215208756</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.09120959894450502</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.1544257390928692</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>0.07673025807333793</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.06139218033648007</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.08575129996941086</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>-0.001213787602231251</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>-0.01976975914171655</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.03448005507176908</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.03594150996978752</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9995759610085592</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1706894501240787</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1702800614296273</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>0.0600448064036444</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>0.05909054635233143</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1764681167814596</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1760551498659255</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>0.01665019306799097</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>0.1135132180471267</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.009384771679494679</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.0610886248715551</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.08484002360295985</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.0003840957141562031</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>-0.0184688027131617</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.03438287542493026</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.03770642471351555</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9995759610085592</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1716415493939617</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.171290847532174</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>0.06076734915745723</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>0.05982218584242752</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1775533359987156</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1771930992352522</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>0.01695835862046242</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>0.1123599910126899</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.007696493619461491</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3517574604327126</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.4687609939101777</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.03715985909466803</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.03034911671538868</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.1419272837931273</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.2429823306031599</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1706894501240787</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1716415493939617</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998587448654496</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.05900351727182804</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.06016234331494795</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9795653354160317</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9794382117523872</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>0.0106998512040554</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>0.06381291454232026</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.05196629510727127</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3472309649356621</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.460908247716188</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.03405402072611151</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.02889675561457603</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.1359266679761508</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.2514988519630926</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1702800614296273</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.171290847532174</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998587448654496</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.05965262752394753</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.06078788554700238</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9795432328660858</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9796860235223841</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>0.009129644781934282</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>0.06072129735818569</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.05238362578873346</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.06139218033648007</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.03334514026495132</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.043663737549396</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>-0.005462325582120539</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.0364137502786218</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.07828562841559226</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>0.0600448064036444</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>0.06076734915745723</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.05900351727182804</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.05965262752394753</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9995759610085592</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1706894501240787</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1702800614296273</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.03882944807832008</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>0.0006215234500419193</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.05120202343069769</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.0610886248715551</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.0342086613525402</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.04451166960164021</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>-0.005629743371480221</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.03729287591780476</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.08015920276606789</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>0.05909054635233143</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>0.05982218584242752</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.06016234331494795</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.06078788554700238</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9995759610085592</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1716415493939617</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.171290847532174</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.03975473477631857</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>0.0005796904044758768</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.05114245519244091</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3517574604327126</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.4505167378140485</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.04345950571043247</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.008148025783910365</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.1426510343735403</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.2502310184835868</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1764681167814596</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1775533359987156</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9795653354160317</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9795432328660858</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1706894501240787</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1716415493939617</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998587448654496</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>0.02950598395812688</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>0.06749699858498928</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.03259628303995777</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3472309649356621</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.4426863788430191</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.04047230937628965</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.006314016016193654</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.1368203800761799</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.2587465215208756</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1760551498659255</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1771930992352522</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9794382117523872</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9796860235223841</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1702800614296273</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.171290847532174</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998587448654496</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>0.02823590279524634</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>0.06464903278276911</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.03337424086954503</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>0.09093033999392612</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>0.09044003741764609</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.7820494117946882</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.6041780894329229</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.0849246029071524</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.09120959894450502</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>0.01665019306799097</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>0.01695835862046242</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>0.0106998512040554</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>0.009129644781934282</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.03882944807832008</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.03975473477631857</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>0.02950598395812688</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>0.02823590279524634</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.7480275308697653</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.6951007465341402</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>0.189562650995008</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>0.1804945712078475</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.814818823870716</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.2091686539599204</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>0.06490928300761503</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.1544257390928692</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>0.1135132180471267</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>0.1123599910126899</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>0.06381291454232026</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>0.06072129735818569</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>0.0006215234500419193</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>0.0005796904044758768</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>0.06749699858498928</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>0.06464903278276911</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.7480275308697653</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.7326586418096319</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>0.08588306548286857</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.03401374959638735</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.8408876705545574</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>-0.03985434147180268</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.1527380869817311</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>0.07673025807333793</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.009384771679494679</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.007696493619461491</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.05196629510727127</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.05238362578873346</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.05120202343069769</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.05114245519244091</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.03259628303995777</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.03337424086954503</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.6951007465341402</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.7326586418096319</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>0.3799862496391154</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>0.01546576148536013</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.03073632779948888</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.1209705435466483</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>0.3483469641879978</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02002951137039458</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01932779072884374</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.07338167436938532</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.06819542508549808</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02002951137039458</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01932779072884374</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.07338167436938532</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.06819542508549808</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.04425649846287547</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>0.01386285521280695</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.03332978280946414</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>0.3799862496391154</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>0.1049968794549357</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>0.0446920881954945</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>0.1666336865483456</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.7970674252292094</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.07114011509077897</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.07001055634285434</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.3415982337708943</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.3295176062167479</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.03784481853614122</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.03891786624499263</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.3216756668762826</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.3095772920812935</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.05319584661770859</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.1037875140573252</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>0.05683172631226675</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>0.01546576148536013</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>0.1049968794549357</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.07272241101607009</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.07720392252752889</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>0.1205573972906166</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>0.05861758995978113</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>0.05995619974212366</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.01604976601494576</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.01734598382728846</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.08523310812384802</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.08600342859637532</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>0.006943036226837208</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>0.005720663157244037</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.7249138560485923</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.7820210334561276</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.8126726034442091</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.03073632779948888</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>0.0446920881954945</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.07272241101607009</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.2614061270600726</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>0.0423303566887633</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.07165692077572547</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.07342143980165103</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.004827340076069885</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.0047064972959022</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.05582345101901644</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.05731049931052701</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.01806272113850419</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.01733902259159259</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.6342981534762355</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1476540137954145</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>-0.00125049756186005</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.1209705435466483</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>0.1666336865483456</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.07720392252752889</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.2614061270600726</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>0.1274538323124889</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.007489353316265297</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.007298813163944661</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.06527057116007681</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.0643160536401033</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.02185489592855504</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.02107885045618528</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.06297134849933179</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.06213043096328048</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.120700998148217</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.006792342762547335</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.1331362568242364</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>0.3483469641879978</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.7970674252292094</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>0.1205573972906166</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>0.0423303566887633</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>0.1274538323124889</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.04863838961955952</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05028872433580699</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.2952871237838713</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3071350227603259</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.06290837436352925</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.06398545005856983</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.2980650561518443</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3098124585749073</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.06421273737076033</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.1122551910153255</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.07433093549177899</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02002951137039458</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.07114011509077897</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>0.05861758995978113</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.07165692077572547</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.007489353316265297</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.04863838961955952</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9994632338336831</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1897150321754161</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1896619411150506</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>0.04888531919194342</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>0.04955222618840247</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1977480884458828</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1979314717391622</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.009908203743204971</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.01743846185744947</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>0.02780212429773552</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01932779072884374</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.07001055634285434</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>0.05995619974212366</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.07342143980165103</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.007298813163944661</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05028872433580699</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9994632338336831</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1905169068778913</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1906536715659582</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>0.05047892884382853</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>0.05120705318006693</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1988728668052886</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1992551889734713</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.0101337073292581</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.01861334128670042</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>0.02899209090248116</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.07338167436938532</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.3415982337708943</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.01604976601494576</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.004827340076069885</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.06527057116007681</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.2952871237838713</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1897150321754161</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1905169068778913</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9993264776960797</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.04236174823634929</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.04235745012147868</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9712174148841034</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9703465649491408</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.0157749209786251</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.01093533768119502</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.02576977933740262</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.06819542508549808</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.3295176062167479</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.01734598382728846</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.0047064972959022</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.0643160536401033</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3071350227603259</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1896619411150506</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1906536715659582</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9993264776960797</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.04395960265155235</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.04402735278952414</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9707119550466562</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9711498551881335</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.01669621016950708</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.01246272472605008</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.02706160070377118</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02002951137039458</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.03784481853614122</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.08523310812384802</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.05582345101901644</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.02185489592855504</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.06290837436352925</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>0.04888531919194342</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>0.05047892884382853</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.04236174823634929</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.04395960265155235</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9994632338336831</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1897150321754161</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1896619411150506</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.02994955126006084</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.01300145047258534</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.07209714056639906</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01932779072884374</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.03891786624499263</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.08600342859637532</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.05731049931052701</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.02107885045618528</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.06398545005856983</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>0.04955222618840247</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>0.05120705318006693</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.04235745012147868</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.04402735278952414</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9994632338336831</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1905169068778913</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1906536715659582</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.02955846053863075</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.01228776541825639</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.07171136003179104</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.07338167436938532</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.3216756668762826</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>0.006943036226837208</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.01806272113850419</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.06297134849933179</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.2980650561518443</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1977480884458828</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1988728668052886</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9712174148841034</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9707119550466562</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1897150321754161</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1905169068778913</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9993264776960797</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.007485743332634142</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.01201890435732043</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.01005546123929003</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.06819542508549808</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.3095772920812935</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>0.005720663157244037</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.01733902259159259</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.06213043096328048</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3098124585749073</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1979314717391622</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1992551889734713</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9703465649491408</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9711498551881335</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1896619411150506</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1906536715659582</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9993264776960797</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.007934210852998952</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.01315724941976846</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.01143856097979101</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.04425649846287547</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.05319584661770859</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.7249138560485923</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.6342981534762355</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.120700998148217</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.06421273737076033</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.009908203743204971</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.0101337073292581</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.0157749209786251</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.01669621016950708</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.02994955126006084</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.02955846053863075</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.007485743332634142</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.007934210852998952</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.6689181380625636</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.6307994667312073</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>0.01386285521280695</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.1037875140573252</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.7820210334561276</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1476540137954145</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.006792342762547335</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.1122551910153255</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.01743846185744947</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.01861334128670042</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.01093533768119502</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.01246272472605008</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.01300145047258534</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.01228776541825639</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.01201890435732043</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.01315724941976846</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.6689181380625636</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.7243139104231873</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.03332978280946414</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>0.05683172631226675</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.8126726034442091</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>-0.00125049756186005</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.1331362568242364</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.07433093549177899</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>0.02780212429773552</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>0.02899209090248116</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.02576977933740262</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.02706160070377118</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.07209714056639906</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.07171136003179104</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.01005546123929003</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.01143856097979101</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.6307994667312073</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.7243139104231873</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.7957691919433524</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.06927294074069176</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.0780755150273737</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.305542296106764</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.7921783633441107</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.001058326740895398</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.0003997745281541582</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.00195689288877882</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.01139436780084613</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.001058326740895398</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.0003997745281541582</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.00195689288877882</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.01139436780084613</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.02088938094278089</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.03478713032685102</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.01118698411193867</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.7957691919433524</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.03276348222892764</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.02650676861548642</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.1007346604147536</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9789106808188015</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.01923008452446518</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.01717692865017444</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1046916947237127</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.08897844349123063</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.01769200615659609</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.01940518936618535</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.09813763246830276</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.08253076071662525</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>0.00566523829691019</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.0181824964495683</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>0.003816749837250265</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.06927294074069176</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.03276348222892764</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.1272342856877366</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.04530619375670546</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.02377029511584182</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.01051393065334873</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.01140138103530641</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.001182657736738486</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>0.003432401363413172</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.04581102929266322</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.05058559426956585</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>0.002077983751628202</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>0.007873328525547412</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.5719931602905329</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.6822597277498628</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.794748897834137</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.0780755150273737</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.02650676861548642</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.1272342856877366</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.2557190123303895</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.03602266608195399</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.04095810355914356</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.03813368361467412</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.04627095405936113</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.04331921975115447</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.03059720517799697</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.03457304785269309</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.04556690939716716</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.04188718223274424</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.7408147549342221</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1152749292662664</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.01128953060473544</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.305542296106764</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.1007346604147536</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.04530619375670546</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.2557190123303895</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.1440429940269692</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.0304567984380273</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.02935374284507219</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.2106266515242297</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.2022733846375301</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.01005848103411472</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.01173194047459721</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.2069389941803473</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.1991277044559688</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1807924252684444</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.07324037051039117</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1663828995524257</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.7921783633441107</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9789106808188015</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.02377029511584182</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.03602266608195399</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.1440429940269692</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.01785804526916024</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.01987341701480945</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1006822740399339</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1144514632982309</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.01909428651596795</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.02054467685127494</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1008776359375306</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1145424507232236</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.01369244644755405</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>-0.01416780441154592</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.01415020298845298</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.001058326740895398</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.01923008452446518</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.01051393065334873</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.04095810355914356</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.0304567984380273</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.01785804526916024</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.990790717772306</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1764639488723856</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1736023491842627</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>0.009694635895933995</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>0.01324304865291013</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1797806063370941</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1773589065298848</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.02442612234531836</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>0.02040584214605076</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>0.009282347535908075</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.0003997745281541582</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.01717692865017444</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.01140138103530641</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.03813368361467412</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.02935374284507219</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.01987341701480945</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.990790717772306</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1756381425583952</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1759937127939606</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>0.01206510961192491</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>0.0164134542881378</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1793125508436668</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1802431963068802</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.02017350268730106</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>0.02788479347308479</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>0.01306523508315968</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.00195689288877882</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1046916947237127</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.001182657736738486</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.04627095405936113</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.2106266515242297</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1006822740399339</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1764639488723856</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1756381425583952</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9905042106579233</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.008399020464515671</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.00751168464979028</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9699585767796607</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9606246036623756</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.0390660423017728</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.02074810852613475</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.05029689590525465</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.01139436780084613</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.08897844349123063</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>0.003432401363413172</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.04331921975115447</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.2022733846375301</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1144514632982309</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1736023491842627</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1759937127939606</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9905042106579233</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.008842827490711547</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.007978598892770123</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9608443178832324</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9699261117224864</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.03349963908532926</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.009742701035542787</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.04204604504470649</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.001058326740895398</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.01769200615659609</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.04581102929266322</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.03059720517799697</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.01005848103411472</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.01909428651596795</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>0.009694635895933995</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>0.01206510961192491</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.008399020464515671</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.008842827490711547</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.990790717772306</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1764639488723856</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1736023491842627</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.0145737658720704</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>0.01160912150461164</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.04843613822025378</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.0003997745281541582</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.01940518936618535</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.05058559426956585</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.03457304785269309</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.01173194047459721</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.02054467685127494</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>0.01324304865291013</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>0.0164134542881378</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.00751168464979028</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.007978598892770123</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.990790717772306</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1756381425583952</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1759937127939606</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.01559025823282291</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>0.01610659032648168</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.05214096866259636</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.00195689288877882</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.09813763246830276</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>0.002077983751628202</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.04556690939716716</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.2069389941803473</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1008776359375306</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1797806063370941</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1793125508436668</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9699585767796607</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9608443178832324</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1764639488723856</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1756381425583952</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9905042106579233</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.03661264199885574</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.0190833833572831</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.03859342834302495</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.01139436780084613</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.08253076071662525</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>0.007873328525547412</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.04188718223274424</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.1991277044559688</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1145424507232236</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1773589065298848</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1802431963068802</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9606246036623756</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9699261117224864</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1736023491842627</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1759937127939606</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9905042106579233</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.02969703736261197</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.006643340122338572</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.02935679608934355</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.02088938094278089</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>0.00566523829691019</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.5719931602905329</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.7408147549342221</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1807924252684444</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.01369244644755405</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.02442612234531836</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.02017350268730106</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.0390660423017728</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.03349963908532926</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.0145737658720704</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.01559025823282291</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.03661264199885574</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.02969703736261197</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.5343134397683494</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.5288783189345284</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.03478713032685102</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.0181824964495683</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.6822597277498628</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1152749292662664</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.07324037051039117</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>-0.01416780441154592</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>0.02040584214605076</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>0.02788479347308479</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.02074810852613475</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.009742701035542787</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>0.01160912150461164</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>0.01610659032648168</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.0190833833572831</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.006643340122338572</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.5343134397683494</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.7290590908283524</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.01118698411193867</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>0.003816749837250265</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.794748897834137</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.01128953060473544</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1663828995524257</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.01415020298845298</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>0.009282347535908075</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>0.01306523508315968</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.05029689590525465</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.04204604504470649</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.04843613822025378</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.05214096866259636</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.03859342834302495</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.02935679608934355</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.5288783189345284</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.7290590908283524</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
